--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_6_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_6_43.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77140.54948704802</v>
+        <v>5151068.340509113</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77140.54948704802</v>
+        <v>5151068.340509113</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1034881335.104671</v>
+        <v>37863564.96498402</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10739.11901085419</v>
+        <v>859894.5711954355</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20884.22234716915</v>
+        <v>1617862.601325055</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31026.27843090509</v>
+        <v>2375830.631454675</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41387.10056428669</v>
+        <v>3133038.964041443</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51747.92269766829</v>
+        <v>3890247.29662821</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>62108.68753929871</v>
+        <v>4647455.629214976</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>72469.49698495155</v>
+        <v>5404663.961801739</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>82830.31593198999</v>
+        <v>6161872.294388501</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>93191.13806537158</v>
+        <v>6919080.626975263</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>103551.902907002</v>
+        <v>7676288.959562025</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>113912.7250403836</v>
+        <v>8433497.292148789</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>124273.4898820141</v>
+        <v>9190705.624735557</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>134634.3120153957</v>
+        <v>9947913.957322331</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>144995.1341487773</v>
+        <v>10705122.2899091</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>155355.956282159</v>
+        <v>11462330.62249588</v>
       </c>
     </row>
   </sheetData>
